--- a/eval/notes.xlsx
+++ b/eval/notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/915f7bc53e120788/Projects/midi_tape_deck/eval/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmp\Documents\Max\midi_tape_deck\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{0182669E-04C6-408A-B35E-0A782B656239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D00DBBC-D64E-4EA8-AE0E-40608ECF7114}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F1CEF0-4FAC-42B3-A401-67E93D62CDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C4C7B00-E495-47C8-AE3A-AB024DC55D7E}"/>
+    <workbookView xWindow="1635" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{0C4C7B00-E495-47C8-AE3A-AB024DC55D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,17 +620,7 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -655,6 +645,1148 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12981450848055759"/>
+                  <c:y val="9.8395811636199759E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 8.1757e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="30000"/>
+                      <a:t>0.0578x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>R² = 1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.89</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43.65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.91</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>58.27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61.74</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73.42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>87.31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>103.83</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>123.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>130.81</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>138.59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>146.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>155.56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>164.81</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>174.61</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>207.65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>233.08</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>246.94</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>261.63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>277.18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>293.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>311.13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>329.63</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>349.23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>369.99</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>415.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>466.16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>493.88</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>523.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>554.37</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>587.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>622.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>659.25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>698.46</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>739.99</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>783.99</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>830.61</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>932.33</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>987.77</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1046.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1108.73</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1174.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1244.51</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1318.51</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1396.91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1479.98</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1567.98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1661.22</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1864.66</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1975.53</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2217.46</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2349.3200000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2489.02</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2637.02</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2793.83</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2959.96</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3135.96</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3322.44</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3729.31</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3951.07</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4186.01</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4434.92</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4698.63</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4978.03</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5274.04</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5587.65</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5919.91</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6271.93</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6644.88</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7040</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7458.62</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7902.13</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8372.02</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8869.84</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9397.27</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9956.06</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10548.08</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11175.3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11839.82</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12543.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD7F-47C2-B51A-D524A8AFD6F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="580194440"/>
+        <c:axId val="451834368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="580194440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451834368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="451834368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580194440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2653,6 +3785,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3208,6 +4380,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{49CF34BD-F895-47F1-A204-A816CA01B87B}">
   <sheetPr/>
@@ -3220,6 +4908,47 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE8B1E5-896A-4FFB-95C5-DFDE465E7AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3551,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E877EEE3-EC07-4101-9E72-75741753E8A6}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" activeCellId="1" sqref="C2:C129 E2:E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5192,7 +6921,7 @@
         <v>2863.4424304899348</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G129" si="7">E68-E67</f>
+        <f t="shared" ref="G67:G128" si="7">E68-E67</f>
         <v>20.759999999999991</v>
       </c>
       <c r="H67">
@@ -5482,7 +7211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="5" t="s">
         <v>80</v>
@@ -7342,5 +9071,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/eval/notes.xlsx
+++ b/eval/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmp\Documents\Max\midi_tape_deck\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F1CEF0-4FAC-42B3-A401-67E93D62CDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8921D32A-C00B-4FCB-A488-29D53847A658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{0C4C7B00-E495-47C8-AE3A-AB024DC55D7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C4C7B00-E495-47C8-AE3A-AB024DC55D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="154">
   <si>
     <t>Octave</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>Freq (Hz)</t>
+  </si>
+  <si>
+    <t>Tune=</t>
+  </si>
+  <si>
+    <t>Hz</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,8 +541,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,8 +561,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -566,12 +584,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,23 +649,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -697,1148 +723,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12981450848055759"/>
-                  <c:y val="9.8395811636199759E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                      <a:t>y = 8.1757e</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" baseline="30000"/>
-                      <a:t>0.0578x</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                      <a:t>R² = 1</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1600"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$129</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$129</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
-                <c:pt idx="0">
-                  <c:v>8.18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.98</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.45</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.83</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25.96</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>29.14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30.87</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.65</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>36.71</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>38.89</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43.65</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>46.25</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51.91</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>58.27</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>61.74</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>65.41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>69.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>73.42</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>77.78</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>82.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>87.31</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>92.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>103.83</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>116.54</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>123.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>130.81</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>138.59</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>146.83000000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>155.56</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>164.81</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>174.61</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>207.65</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>233.08</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>246.94</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>261.63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>277.18</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>293.66000000000003</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>311.13</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>329.63</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>349.23</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>369.99</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>415.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>466.16</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>493.88</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>523.25</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>554.37</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>587.33000000000004</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>622.25</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>659.25</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>698.46</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>739.99</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>783.99</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>830.61</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>932.33</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>987.77</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1046.5</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1108.73</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1174.6600000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1244.51</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1318.51</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1396.91</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1479.98</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1567.98</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1661.22</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1864.66</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1975.53</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2093</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2217.46</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2349.3200000000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2489.02</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2637.02</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2793.83</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2959.96</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>3135.96</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3322.44</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3520</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3729.31</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3951.07</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>4186.01</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>4434.92</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>4698.63</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>4978.03</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>5274.04</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>5587.65</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>5919.91</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6271.93</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6644.88</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>7040</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>7458.62</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>7902.13</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>8372.02</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>8869.84</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>9397.27</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>9956.06</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>10548.08</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>11175.3</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>11839.82</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>12543.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD7F-47C2-B51A-D524A8AFD6F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="580194440"/>
-        <c:axId val="451834368"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="580194440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="451834368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="451834368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="580194440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$1</c:f>
@@ -3112,391 +1996,391 @@
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$129</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="128"/>
                 <c:pt idx="0">
-                  <c:v>8.18</c:v>
+                  <c:v>8.175798915643707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.66</c:v>
+                  <c:v>8.6619572180272524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.18</c:v>
+                  <c:v>9.1770239974189884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7200000000000006</c:v>
+                  <c:v>9.722718241315027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.3</c:v>
+                  <c:v>10.300861153527187</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.91</c:v>
+                  <c:v>10.913382232281375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.56</c:v>
+                  <c:v>11.562325709738577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.25</c:v>
+                  <c:v>12.249857374429663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.98</c:v>
+                  <c:v>12.978271799373291</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.57</c:v>
+                  <c:v>14.567617547440307</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.43</c:v>
+                  <c:v>15.433853164253883</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.350000000000001</c:v>
+                  <c:v>16.351597831287414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.32</c:v>
+                  <c:v>17.323914436054505</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.350000000000001</c:v>
+                  <c:v>18.354047994837977</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.45</c:v>
+                  <c:v>19.445436482630058</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.6</c:v>
+                  <c:v>20.601722307054366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.83</c:v>
+                  <c:v>21.82676446456275</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.12</c:v>
+                  <c:v>23.124651419477154</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.5</c:v>
+                  <c:v>24.499714748859326</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.96</c:v>
+                  <c:v>25.956543598746581</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.14</c:v>
+                  <c:v>29.135235094880628</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.87</c:v>
+                  <c:v>30.867706328507751</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.700000000000003</c:v>
+                  <c:v>32.703195662574828</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34.65</c:v>
+                  <c:v>34.647828872109017</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36.71</c:v>
+                  <c:v>36.708095989675947</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38.89</c:v>
+                  <c:v>38.890872965260115</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.2</c:v>
+                  <c:v>41.203444614108754</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43.65</c:v>
+                  <c:v>43.653528929125486</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.25</c:v>
+                  <c:v>46.249302838954307</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>49</c:v>
+                  <c:v>48.99942949771868</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51.91</c:v>
+                  <c:v>51.913087197493141</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58.27</c:v>
+                  <c:v>58.270470189761255</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>61.74</c:v>
+                  <c:v>61.735412657015516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>65.41</c:v>
+                  <c:v>65.406391325149656</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>69.3</c:v>
+                  <c:v>69.295657744218019</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73.42</c:v>
+                  <c:v>73.416191979351879</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>77.78</c:v>
+                  <c:v>77.781745930520216</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82.41</c:v>
+                  <c:v>82.406889228217494</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.31</c:v>
+                  <c:v>87.307057858250957</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>92.5</c:v>
+                  <c:v>92.498605677908614</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>98</c:v>
+                  <c:v>97.998858995437345</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>103.83</c:v>
+                  <c:v>103.82617439498628</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>116.54</c:v>
+                  <c:v>116.54094037952248</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>123.47</c:v>
+                  <c:v>123.47082531403106</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>130.81</c:v>
+                  <c:v>130.81278265029931</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>138.59</c:v>
+                  <c:v>138.59131548843604</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>146.83000000000001</c:v>
+                  <c:v>146.83238395870382</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>155.56</c:v>
+                  <c:v>155.56349186104046</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>164.81</c:v>
+                  <c:v>164.81377845643496</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>174.61</c:v>
+                  <c:v>174.61411571650197</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>185</c:v>
+                  <c:v>184.99721135581723</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>196</c:v>
+                  <c:v>195.99771799087463</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>207.65</c:v>
+                  <c:v>207.65234878997259</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>233.08</c:v>
+                  <c:v>233.08188075904496</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>246.94</c:v>
+                  <c:v>246.94165062806206</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>261.63</c:v>
+                  <c:v>261.62556530059862</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>277.18</c:v>
+                  <c:v>277.18263097687208</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>293.66000000000003</c:v>
+                  <c:v>293.66476791740757</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>311.13</c:v>
+                  <c:v>311.12698372208087</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>329.63</c:v>
+                  <c:v>329.62755691286992</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>349.23</c:v>
+                  <c:v>349.22823143300388</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>369.99</c:v>
+                  <c:v>369.99442271163446</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>392</c:v>
+                  <c:v>391.99543598174927</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>415.3</c:v>
+                  <c:v>415.30469757994513</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>466.16</c:v>
+                  <c:v>466.16376151808993</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>493.88</c:v>
+                  <c:v>493.88330125612413</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>523.25</c:v>
+                  <c:v>523.25113060119725</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>554.37</c:v>
+                  <c:v>554.36526195374415</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>587.33000000000004</c:v>
+                  <c:v>587.32953583481515</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>622.25</c:v>
+                  <c:v>622.25396744416184</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>659.25</c:v>
+                  <c:v>659.25511382573984</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>698.46</c:v>
+                  <c:v>698.45646286600777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>739.99</c:v>
+                  <c:v>739.9888454232688</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>783.99</c:v>
+                  <c:v>783.99087196349853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>830.61</c:v>
+                  <c:v>830.60939515989025</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>932.33</c:v>
+                  <c:v>932.32752303617963</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>987.77</c:v>
+                  <c:v>987.76660251224826</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1046.5</c:v>
+                  <c:v>1046.5022612023945</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1108.73</c:v>
+                  <c:v>1108.7305239074883</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1174.6600000000001</c:v>
+                  <c:v>1174.6590716696303</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1244.51</c:v>
+                  <c:v>1244.5079348883235</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1318.51</c:v>
+                  <c:v>1318.5102276514795</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1396.91</c:v>
+                  <c:v>1396.9129257320155</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1479.98</c:v>
+                  <c:v>1479.9776908465376</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1567.98</c:v>
+                  <c:v>1567.9817439269968</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1661.22</c:v>
+                  <c:v>1661.2187903197805</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1864.66</c:v>
+                  <c:v>1864.6550460723597</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1975.53</c:v>
+                  <c:v>1975.5332050244961</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2093</c:v>
+                  <c:v>2093.004522404789</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2217.46</c:v>
+                  <c:v>2217.4610478149771</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2349.3200000000002</c:v>
+                  <c:v>2349.3181433392601</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2489.02</c:v>
+                  <c:v>2489.0158697766474</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2637.02</c:v>
+                  <c:v>2637.0204553029598</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2793.83</c:v>
+                  <c:v>2793.8258514640311</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2959.96</c:v>
+                  <c:v>2959.9553816930757</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3135.96</c:v>
+                  <c:v>3135.9634878539941</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3322.44</c:v>
+                  <c:v>3322.4375806395601</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>3520</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3729.31</c:v>
+                  <c:v>3729.3100921447194</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3951.07</c:v>
+                  <c:v>3951.0664100489917</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4186.01</c:v>
+                  <c:v>4186.0090448095771</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4434.92</c:v>
+                  <c:v>4434.9220956299532</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4698.63</c:v>
+                  <c:v>4698.6362866785194</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4978.03</c:v>
+                  <c:v>4978.0317395532938</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5274.04</c:v>
+                  <c:v>5274.0409106059187</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5587.65</c:v>
+                  <c:v>5587.6517029280612</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5919.91</c:v>
+                  <c:v>5919.9107633861504</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>6271.93</c:v>
+                  <c:v>6271.9269757079892</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>6644.88</c:v>
+                  <c:v>6644.8751612791211</c:v>
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>7040</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7458.62</c:v>
+                  <c:v>7458.6201842894361</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7902.13</c:v>
+                  <c:v>7902.1328200979879</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8372.02</c:v>
+                  <c:v>8372.0180896191559</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>8869.84</c:v>
+                  <c:v>8869.8441912599046</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>9397.27</c:v>
+                  <c:v>9397.2725733570442</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>9956.06</c:v>
+                  <c:v>9956.0634791065877</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>10548.08</c:v>
+                  <c:v>10548.081821211836</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>11175.3</c:v>
+                  <c:v>11175.303405856126</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>11839.82</c:v>
+                  <c:v>11839.821526772301</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>12543.85</c:v>
+                  <c:v>12543.853951415975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3650,7 +2534,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3785,46 +2669,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4380,527 +3224,11 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{49CF34BD-F895-47F1-A204-A816CA01B87B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4909,50 +3237,9 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE8B1E5-896A-4FFB-95C5-DFDE465E7AEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8637628" cy="6276731"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5278,10 +3565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E877EEE3-EC07-4101-9E72-75741753E8A6}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="C2:C129 E2:E129"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5290,11 +3578,13 @@
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.140625" style="9"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5313,8 +3603,17 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="16">
+        <v>440</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>-1</v>
       </c>
@@ -5327,19 +3626,16 @@
       <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>8.18</v>
+      <c r="E2" s="9">
+        <f>POWER(2, (C2-69)/12) * $I$1</f>
+        <v>8.175798915643707</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2:F13" si="0">1/E2*1000000</f>
-        <v>122249.38875305625</v>
-      </c>
-      <c r="G2">
-        <f>E3-E2</f>
-        <v>0.48000000000000043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122312.20585508576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -5351,19 +3647,16 @@
         <f t="shared" ref="D3:D34" si="1">D2+(1/12)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E3" s="1">
-        <v>8.66</v>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E66" si="2">POWER(2, (C3-69)/12) * $I$1</f>
+        <v>8.6619572180272524</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>115473.44110854503</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="2">E4-E3</f>
-        <v>0.51999999999999957</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115447.34923405088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -5375,19 +3668,16 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E4" s="1">
-        <v>9.18</v>
+      <c r="E4" s="9">
+        <f t="shared" si="2"/>
+        <v>9.1770239974189884</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>108932.46187363836</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>0.54000000000000092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108967.78740921317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -5399,19 +3689,16 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="E5" s="1">
-        <v>9.7200000000000006</v>
+      <c r="E5" s="9">
+        <f t="shared" si="2"/>
+        <v>9.722718241315027</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>102880.65843621398</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0.58000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102851.89544531603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -5423,19 +3710,16 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E6" s="1">
-        <v>10.3</v>
+      <c r="E6" s="9">
+        <f t="shared" si="2"/>
+        <v>10.300861153527187</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>97087.378640776704</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>0.60999999999999943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97079.262121457024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -5447,19 +3731,16 @@
         <f t="shared" si="1"/>
         <v>0.41666666666666663</v>
       </c>
-      <c r="E7" s="1">
-        <v>10.91</v>
+      <c r="E7" s="9">
+        <f t="shared" si="2"/>
+        <v>10.913382232281375</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>91659.028414298809</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>0.65000000000000036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91630.621810536206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -5471,19 +3752,16 @@
         <f t="shared" si="1"/>
         <v>0.49999999999999994</v>
       </c>
-      <c r="E8" s="1">
-        <v>11.56</v>
+      <c r="E8" s="9">
+        <f t="shared" si="2"/>
+        <v>11.562325709738577</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>86505.190311418672</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>0.6899999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86487.790182016062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -5495,19 +3773,16 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="E9" s="1">
-        <v>12.25</v>
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
+        <v>12.249857374429663</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>81632.653061224482</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>0.73000000000000043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81633.603513408962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -5519,19 +3794,16 @@
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E10" s="1">
-        <v>12.98</v>
+      <c r="E10" s="9">
+        <f t="shared" si="2"/>
+        <v>12.978271799373291</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>77041.602465331278</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0.76999999999999957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77051.861407948716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -5543,19 +3815,16 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="9">
+        <f t="shared" si="2"/>
         <v>13.75</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>72727.272727272721</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>0.82000000000000028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -5567,19 +3836,16 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E12" s="1">
-        <v>14.57</v>
+      <c r="E12" s="9">
+        <f t="shared" si="2"/>
+        <v>14.567617547440307</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>68634.179821551137</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0.85999999999999943</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68645.404558668626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
@@ -5591,19 +3857,16 @@
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
-      <c r="E13" s="10">
-        <v>15.43</v>
+      <c r="E13" s="11">
+        <f t="shared" si="2"/>
+        <v>15.433853164253883</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>64808.813998703823</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0.92000000000000171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64792.634046570114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>0</v>
       </c>
@@ -5617,19 +3880,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>16.350000000000001</v>
+      <c r="E14" s="9">
+        <f t="shared" si="2"/>
+        <v>16.351597831287414</v>
       </c>
       <c r="F14" s="4">
         <f>1/E14*1000000</f>
-        <v>61162.079510703355</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0.96999999999999886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61156.102927542881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -5641,19 +3901,16 @@
         <f t="shared" si="1"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="E15" s="1">
-        <v>17.32</v>
+      <c r="E15" s="9">
+        <f t="shared" si="2"/>
+        <v>17.323914436054505</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ref="F15:F78" si="3">1/E15*1000000</f>
-        <v>57736.720554272513</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>1.0300000000000011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57723.674617025441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -5665,19 +3922,16 @@
         <f t="shared" si="1"/>
         <v>1.1666666666666665</v>
       </c>
-      <c r="E16" s="1">
-        <v>18.350000000000001</v>
+      <c r="E16" s="9">
+        <f t="shared" si="2"/>
+        <v>18.354047994837977</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="3"/>
-        <v>54495.912806539505</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>1.0999999999999979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54483.893704606584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -5689,19 +3943,16 @@
         <f t="shared" si="1"/>
         <v>1.2499999999999998</v>
       </c>
-      <c r="E17" s="1">
-        <v>19.45</v>
+      <c r="E17" s="9">
+        <f t="shared" si="2"/>
+        <v>19.445436482630058</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="3"/>
-        <v>51413.881748071981</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>1.1500000000000021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51425.947722658006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -5713,19 +3964,16 @@
         <f t="shared" si="1"/>
         <v>1.333333333333333</v>
       </c>
-      <c r="E18" s="1">
-        <v>20.6</v>
+      <c r="E18" s="9">
+        <f t="shared" si="2"/>
+        <v>20.601722307054366</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="3"/>
-        <v>48543.689320388352</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>1.2299999999999969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48539.631060728534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="1" t="s">
         <v>21</v>
@@ -5737,19 +3985,16 @@
         <f t="shared" si="1"/>
         <v>1.4166666666666663</v>
       </c>
-      <c r="E19" s="1">
-        <v>21.83</v>
+      <c r="E19" s="9">
+        <f t="shared" si="2"/>
+        <v>21.82676446456275</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="3"/>
-        <v>45808.520384791569</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>1.2900000000000027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45815.310905268103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -5761,19 +4006,16 @@
         <f t="shared" si="1"/>
         <v>1.4999999999999996</v>
       </c>
-      <c r="E20" s="1">
-        <v>23.12</v>
+      <c r="E20" s="9">
+        <f t="shared" si="2"/>
+        <v>23.124651419477154</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="3"/>
-        <v>43252.595155709336</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>1.379999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43243.895091008031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>23</v>
@@ -5785,19 +4027,16 @@
         <f t="shared" si="1"/>
         <v>1.5833333333333328</v>
       </c>
-      <c r="E21" s="1">
-        <v>24.5</v>
+      <c r="E21" s="9">
+        <f t="shared" si="2"/>
+        <v>24.499714748859326</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="3"/>
-        <v>40816.326530612241</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>1.4600000000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40816.801756704481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
         <v>24</v>
@@ -5809,19 +4048,16 @@
         <f t="shared" si="1"/>
         <v>1.6666666666666661</v>
       </c>
-      <c r="E22" s="1">
-        <v>25.96</v>
+      <c r="E22" s="9">
+        <f t="shared" si="2"/>
+        <v>25.956543598746581</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="3"/>
-        <v>38520.801232665639</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>1.5399999999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38525.930703974358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="1" t="s">
         <v>25</v>
@@ -5833,19 +4069,16 @@
         <f t="shared" si="1"/>
         <v>1.7499999999999993</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="9">
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="3"/>
         <v>36363.63636363636</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>1.6400000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="1" t="s">
         <v>26</v>
@@ -5857,19 +4090,16 @@
         <f t="shared" si="1"/>
         <v>1.8333333333333326</v>
       </c>
-      <c r="E24" s="1">
-        <v>29.14</v>
+      <c r="E24" s="9">
+        <f t="shared" si="2"/>
+        <v>29.135235094880628</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="3"/>
-        <v>34317.089910775569</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>1.7300000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34322.702279334306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="10" t="s">
         <v>27</v>
@@ -5881,19 +4111,16 @@
         <f t="shared" si="1"/>
         <v>1.9166666666666659</v>
       </c>
-      <c r="E25" s="10">
-        <v>30.87</v>
+      <c r="E25" s="11">
+        <f t="shared" si="2"/>
+        <v>30.867706328507751</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" si="3"/>
-        <v>32393.909944930354</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>1.8300000000000018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32396.317023285068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>1</v>
       </c>
@@ -5907,19 +4134,16 @@
         <f t="shared" si="1"/>
         <v>1.9999999999999991</v>
       </c>
-      <c r="E26" s="1">
-        <v>32.700000000000003</v>
+      <c r="E26" s="9">
+        <f t="shared" si="2"/>
+        <v>32.703195662574828</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="3"/>
-        <v>30581.039755351678</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>1.9499999999999957</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30578.05146377144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="1" t="s">
         <v>29</v>
@@ -5931,19 +4155,16 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333326</v>
       </c>
-      <c r="E27" s="1">
-        <v>34.65</v>
+      <c r="E27" s="9">
+        <f t="shared" si="2"/>
+        <v>34.647828872109017</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="3"/>
-        <v>28860.028860028859</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>2.0600000000000023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28861.837308512713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="1" t="s">
         <v>30</v>
@@ -5955,19 +4176,16 @@
         <f t="shared" si="1"/>
         <v>2.1666666666666661</v>
       </c>
-      <c r="E28" s="1">
-        <v>36.71</v>
+      <c r="E28" s="9">
+        <f t="shared" si="2"/>
+        <v>36.708095989675947</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="3"/>
-        <v>27240.533914464722</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>2.1799999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27241.946852303299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="1" t="s">
         <v>31</v>
@@ -5979,19 +4197,16 @@
         <f t="shared" si="1"/>
         <v>2.2499999999999996</v>
       </c>
-      <c r="E29" s="1">
-        <v>38.89</v>
+      <c r="E29" s="9">
+        <f t="shared" si="2"/>
+        <v>38.890872965260115</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="3"/>
-        <v>25713.551041398816</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>2.3100000000000023</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25712.973861329003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="1" t="s">
         <v>32</v>
@@ -6003,19 +4218,16 @@
         <f t="shared" si="1"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="E30" s="1">
-        <v>41.2</v>
+      <c r="E30" s="9">
+        <f t="shared" si="2"/>
+        <v>41.203444614108754</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="3"/>
-        <v>24271.844660194176</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>2.4499999999999957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24269.815530364252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
@@ -6027,19 +4239,16 @@
         <f t="shared" si="1"/>
         <v>2.4166666666666665</v>
       </c>
-      <c r="E31" s="1">
-        <v>43.65</v>
+      <c r="E31" s="9">
+        <f t="shared" si="2"/>
+        <v>43.653528929125486</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="3"/>
-        <v>22909.507445589923</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>2.6000000000000014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22907.655452634059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
@@ -6051,19 +4260,16 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="E32" s="1">
-        <v>46.25</v>
+      <c r="E32" s="9">
+        <f t="shared" si="2"/>
+        <v>46.249302838954307</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="3"/>
-        <v>21621.621621621623</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21621.947545504016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
@@ -6075,19 +4281,16 @@
         <f t="shared" si="1"/>
         <v>2.5833333333333335</v>
       </c>
-      <c r="E33" s="1">
-        <v>49</v>
+      <c r="E33" s="9">
+        <f t="shared" si="2"/>
+        <v>48.99942949771868</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="3"/>
-        <v>20408.163265306121</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>2.9099999999999966</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20408.400878352229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="1" t="s">
         <v>36</v>
@@ -6099,19 +4302,16 @@
         <f t="shared" si="1"/>
         <v>2.666666666666667</v>
       </c>
-      <c r="E34" s="1">
-        <v>51.91</v>
+      <c r="E34" s="9">
+        <f t="shared" si="2"/>
+        <v>51.913087197493141</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="3"/>
-        <v>19264.110961279137</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>3.0900000000000034</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19262.965351987186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="1" t="s">
         <v>37</v>
@@ -6123,19 +4323,16 @@
         <f t="shared" ref="D35:D66" si="4">D34+(1/12)</f>
         <v>2.7500000000000004</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="9">
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="3"/>
         <v>18181.81818181818</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
-        <v>3.2700000000000031</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -6147,19 +4344,16 @@
         <f t="shared" si="4"/>
         <v>2.8333333333333339</v>
       </c>
-      <c r="E36" s="1">
-        <v>58.27</v>
+      <c r="E36" s="9">
+        <f t="shared" si="2"/>
+        <v>58.270470189761255</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="3"/>
-        <v>17161.489617298779</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>3.4699999999999989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17161.351139667153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="10" t="s">
         <v>39</v>
@@ -6171,19 +4365,16 @@
         <f t="shared" si="4"/>
         <v>2.9166666666666674</v>
       </c>
-      <c r="E37" s="10">
-        <v>61.74</v>
+      <c r="E37" s="11">
+        <f t="shared" si="2"/>
+        <v>61.735412657015516</v>
       </c>
       <c r="F37" s="12">
         <f t="shared" si="3"/>
-        <v>16196.954972465177</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>3.6699999999999946</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16198.15851164253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>2</v>
       </c>
@@ -6197,19 +4388,16 @@
         <f t="shared" si="4"/>
         <v>3.0000000000000009</v>
       </c>
-      <c r="E38" s="1">
-        <v>65.41</v>
+      <c r="E38" s="9">
+        <f t="shared" si="2"/>
+        <v>65.406391325149656</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="3"/>
-        <v>15288.182235132244</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>3.8900000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15289.02573188572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
@@ -6221,19 +4409,16 @@
         <f t="shared" si="4"/>
         <v>3.0833333333333344</v>
       </c>
-      <c r="E39" s="1">
-        <v>69.3</v>
+      <c r="E39" s="9">
+        <f t="shared" si="2"/>
+        <v>69.295657744218019</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="3"/>
-        <v>14430.014430014429</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>4.1200000000000045</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14430.91865425636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
@@ -6245,19 +4430,16 @@
         <f t="shared" si="4"/>
         <v>3.1666666666666679</v>
       </c>
-      <c r="E40" s="1">
-        <v>73.42</v>
+      <c r="E40" s="9">
+        <f t="shared" si="2"/>
+        <v>73.416191979351879</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="3"/>
-        <v>13620.266957232361</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>4.3599999999999994</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13620.973426151651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="1" t="s">
         <v>43</v>
@@ -6269,19 +4451,16 @@
         <f t="shared" si="4"/>
         <v>3.2500000000000013</v>
       </c>
-      <c r="E41" s="1">
-        <v>77.78</v>
+      <c r="E41" s="9">
+        <f t="shared" si="2"/>
+        <v>77.781745930520216</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="3"/>
-        <v>12856.775520699408</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>4.6299999999999955</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12856.486930664503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>44</v>
@@ -6293,19 +4472,16 @@
         <f t="shared" si="4"/>
         <v>3.3333333333333348</v>
       </c>
-      <c r="E42" s="1">
-        <v>82.41</v>
+      <c r="E42" s="9">
+        <f t="shared" si="2"/>
+        <v>82.406889228217494</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" si="3"/>
-        <v>12134.449702705982</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>4.9000000000000057</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12134.907765182128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="1" t="s">
         <v>45</v>
@@ -6317,19 +4493,16 @@
         <f t="shared" si="4"/>
         <v>3.4166666666666683</v>
       </c>
-      <c r="E43" s="1">
-        <v>87.31</v>
+      <c r="E43" s="9">
+        <f t="shared" si="2"/>
+        <v>87.307057858250957</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" si="3"/>
-        <v>11453.441759248653</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>5.1899999999999977</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11453.827726317031</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="1" t="s">
         <v>46</v>
@@ -6341,19 +4514,16 @@
         <f t="shared" si="4"/>
         <v>3.5000000000000018</v>
       </c>
-      <c r="E44" s="1">
-        <v>92.5</v>
+      <c r="E44" s="9">
+        <f t="shared" si="2"/>
+        <v>92.498605677908614</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="3"/>
-        <v>10810.810810810812</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10810.973772752008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="1" t="s">
         <v>47</v>
@@ -6365,19 +4535,16 @@
         <f t="shared" si="4"/>
         <v>3.5833333333333353</v>
       </c>
-      <c r="E45" s="1">
-        <v>98</v>
+      <c r="E45" s="9">
+        <f t="shared" si="2"/>
+        <v>97.998858995437345</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="3"/>
-        <v>10204.08163265306</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>5.8299999999999983</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10204.200439176117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>48</v>
@@ -6389,19 +4556,16 @@
         <f t="shared" si="4"/>
         <v>3.6666666666666687</v>
       </c>
-      <c r="E46" s="1">
-        <v>103.83</v>
+      <c r="E46" s="9">
+        <f t="shared" si="2"/>
+        <v>103.82617439498628</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" si="3"/>
-        <v>9631.127805065973</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>6.1700000000000017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9631.4826759935931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="1" t="s">
         <v>49</v>
@@ -6413,19 +4577,16 @@
         <f t="shared" si="4"/>
         <v>3.7500000000000022</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="9">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="3"/>
         <v>9090.9090909090901</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>6.5400000000000063</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="1" t="s">
         <v>50</v>
@@ -6437,19 +4598,16 @@
         <f t="shared" si="4"/>
         <v>3.8333333333333357</v>
       </c>
-      <c r="E48" s="1">
-        <v>116.54</v>
+      <c r="E48" s="9">
+        <f t="shared" si="2"/>
+        <v>116.54094037952248</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" si="3"/>
-        <v>8580.7448086493896</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>6.9299999999999926</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8580.6755698335764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
@@ -6461,19 +4619,16 @@
         <f t="shared" si="4"/>
         <v>3.9166666666666692</v>
       </c>
-      <c r="E49" s="10">
-        <v>123.47</v>
+      <c r="E49" s="11">
+        <f t="shared" si="2"/>
+        <v>123.47082531403106</v>
       </c>
       <c r="F49" s="12">
         <f t="shared" si="3"/>
-        <v>8099.1333927269789</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>7.3400000000000034</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8099.0792558212643</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>3</v>
       </c>
@@ -6487,19 +4642,16 @@
         <f t="shared" si="4"/>
         <v>4.0000000000000027</v>
       </c>
-      <c r="E50" s="1">
-        <v>130.81</v>
+      <c r="E50" s="9">
+        <f t="shared" si="2"/>
+        <v>130.81278265029931</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" si="3"/>
-        <v>7644.6754835257243</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>7.7800000000000011</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7644.5128659428601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="1" t="s">
         <v>53</v>
@@ -6511,19 +4663,16 @@
         <f t="shared" si="4"/>
         <v>4.0833333333333357</v>
       </c>
-      <c r="E51" s="1">
-        <v>138.59</v>
+      <c r="E51" s="9">
+        <f t="shared" si="2"/>
+        <v>138.59131548843604</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" si="3"/>
-        <v>7215.5278158597303</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>8.2400000000000091</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7215.4593271281801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="1" t="s">
         <v>54</v>
@@ -6535,19 +4684,16 @@
         <f t="shared" si="4"/>
         <v>4.1666666666666687</v>
       </c>
-      <c r="E52" s="1">
-        <v>146.83000000000001</v>
+      <c r="E52" s="9">
+        <f t="shared" si="2"/>
+        <v>146.83238395870382</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" si="3"/>
-        <v>6810.5972893822782</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>8.7299999999999898</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6810.486713075823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="1" t="s">
         <v>55</v>
@@ -6559,19 +4705,16 @@
         <f t="shared" si="4"/>
         <v>4.2500000000000018</v>
       </c>
-      <c r="E53" s="1">
-        <v>155.56</v>
+      <c r="E53" s="9">
+        <f t="shared" si="2"/>
+        <v>155.56349186104046</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" si="3"/>
-        <v>6428.387760349704</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6428.2434653322507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="1" t="s">
         <v>56</v>
@@ -6583,19 +4726,16 @@
         <f t="shared" si="4"/>
         <v>4.3333333333333348</v>
       </c>
-      <c r="E54" s="1">
-        <v>164.81</v>
+      <c r="E54" s="9">
+        <f t="shared" si="2"/>
+        <v>164.81377845643496</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" si="3"/>
-        <v>6067.5929858625077</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>9.8000000000000114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6067.4538825910658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="1" t="s">
         <v>57</v>
@@ -6607,19 +4747,16 @@
         <f t="shared" si="4"/>
         <v>4.4166666666666679</v>
       </c>
-      <c r="E55" s="1">
-        <v>174.61</v>
+      <c r="E55" s="9">
+        <f t="shared" si="2"/>
+        <v>174.61411571650197</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" si="3"/>
-        <v>5727.0488517267049</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>10.389999999999986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5726.9138631585138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="1" t="s">
         <v>58</v>
@@ -6631,19 +4768,16 @@
         <f t="shared" si="4"/>
         <v>4.5000000000000009</v>
       </c>
-      <c r="E56" s="1">
-        <v>185</v>
+      <c r="E56" s="9">
+        <f t="shared" si="2"/>
+        <v>184.99721135581723</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" si="3"/>
-        <v>5405.4054054054059</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5405.4868863760039</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="1" t="s">
         <v>59</v>
@@ -6655,19 +4789,16 @@
         <f t="shared" si="4"/>
         <v>4.5833333333333339</v>
       </c>
-      <c r="E57" s="1">
-        <v>196</v>
+      <c r="E57" s="9">
+        <f t="shared" si="2"/>
+        <v>195.99771799087463</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" si="3"/>
-        <v>5102.0408163265301</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>11.650000000000006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5102.1002195880592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="1" t="s">
         <v>60</v>
@@ -6679,19 +4810,16 @@
         <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="E58" s="1">
-        <v>207.65</v>
+      <c r="E58" s="9">
+        <f t="shared" si="2"/>
+        <v>207.65234878997259</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="3"/>
-        <v>4815.7958102576449</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
-        <v>12.349999999999994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4815.7413379967966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="1" t="s">
         <v>61</v>
@@ -6703,19 +4831,16 @@
         <f t="shared" si="4"/>
         <v>4.75</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="9">
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" si="3"/>
         <v>4545.454545454545</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="2"/>
-        <v>13.080000000000013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="1" t="s">
         <v>62</v>
@@ -6727,19 +4852,16 @@
         <f t="shared" si="4"/>
         <v>4.833333333333333</v>
       </c>
-      <c r="E60" s="1">
-        <v>233.08</v>
+      <c r="E60" s="9">
+        <f t="shared" si="2"/>
+        <v>233.08188075904496</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" si="3"/>
-        <v>4290.3724043246948</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>13.859999999999985</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4290.3377849167882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="10" t="s">
         <v>63</v>
@@ -6751,19 +4873,16 @@
         <f t="shared" si="4"/>
         <v>4.9166666666666661</v>
       </c>
-      <c r="E61" s="10">
-        <v>246.94</v>
+      <c r="E61" s="11">
+        <f t="shared" si="2"/>
+        <v>246.94165062806206</v>
       </c>
       <c r="F61" s="12">
         <f t="shared" si="3"/>
-        <v>4049.5666963634894</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>14.689999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4049.5396279106326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>4</v>
       </c>
@@ -6777,19 +4896,16 @@
         <f t="shared" si="4"/>
         <v>4.9999999999999991</v>
       </c>
-      <c r="E62" s="1">
-        <v>261.63</v>
+      <c r="E62" s="9">
+        <f t="shared" si="2"/>
+        <v>261.62556530059862</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" si="3"/>
-        <v>3822.1916446890646</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>15.550000000000011</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3822.2564329714301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="1" t="s">
         <v>65</v>
@@ -6801,23 +4917,16 @@
         <f t="shared" si="4"/>
         <v>5.0833333333333321</v>
       </c>
-      <c r="E63" s="1">
-        <v>277.18</v>
+      <c r="E63" s="9">
+        <f t="shared" si="2"/>
+        <v>277.18263097687208</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" si="3"/>
-        <v>3607.7639079298651</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>16.480000000000018</v>
-      </c>
-      <c r="H63">
-        <f>INT(G63/16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3607.7296635640901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="1" t="s">
         <v>66</v>
@@ -6829,23 +4938,16 @@
         <f t="shared" si="4"/>
         <v>5.1666666666666652</v>
       </c>
-      <c r="E64" s="1">
-        <v>293.66000000000003</v>
+      <c r="E64" s="9">
+        <f t="shared" si="2"/>
+        <v>293.66476791740757</v>
       </c>
       <c r="F64" s="4">
         <f t="shared" si="3"/>
-        <v>3405.2986446911391</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>17.46999999999997</v>
-      </c>
-      <c r="H64">
-        <f t="shared" ref="H64:H127" si="5">INT(G64/16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3405.2433565379124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="1" t="s">
         <v>67</v>
@@ -6857,23 +4959,16 @@
         <f t="shared" si="4"/>
         <v>5.2499999999999982</v>
       </c>
-      <c r="E65" s="1">
-        <v>311.13</v>
+      <c r="E65" s="9">
+        <f t="shared" si="2"/>
+        <v>311.12698372208087</v>
       </c>
       <c r="F65" s="4">
         <f t="shared" si="3"/>
-        <v>3214.0905730723493</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>18.5</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3214.1217326661258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="1" t="s">
         <v>68</v>
@@ -6885,23 +4980,16 @@
         <f t="shared" si="4"/>
         <v>5.3333333333333313</v>
       </c>
-      <c r="E66" s="1">
-        <v>329.63</v>
+      <c r="E66" s="9">
+        <f t="shared" si="2"/>
+        <v>329.62755691286992</v>
       </c>
       <c r="F66" s="4">
         <f t="shared" si="3"/>
-        <v>3033.7044565118463</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>19.600000000000023</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3033.7269412955329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="1" t="s">
         <v>69</v>
@@ -6910,26 +4998,19 @@
         <v>65</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" ref="D67:D98" si="6">D66+(1/12)</f>
+        <f t="shared" ref="D67:D98" si="5">D66+(1/12)</f>
         <v>5.4166666666666643</v>
       </c>
-      <c r="E67" s="1">
-        <v>349.23</v>
+      <c r="E67" s="9">
+        <f t="shared" ref="E67:E129" si="6">POWER(2, (C67-69)/12) * $I$1</f>
+        <v>349.22823143300388</v>
       </c>
       <c r="F67" s="4">
         <f t="shared" si="3"/>
-        <v>2863.4424304899348</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G128" si="7">E68-E67</f>
-        <v>20.759999999999991</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2863.4569315792573</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="1" t="s">
         <v>70</v>
@@ -6938,26 +5019,19 @@
         <v>66</v>
       </c>
       <c r="D68" s="9">
+        <f t="shared" si="5"/>
+        <v>5.4999999999999973</v>
+      </c>
+      <c r="E68" s="9">
         <f t="shared" si="6"/>
-        <v>5.4999999999999973</v>
-      </c>
-      <c r="E68" s="1">
-        <v>369.99</v>
+        <v>369.99442271163446</v>
       </c>
       <c r="F68" s="4">
         <f t="shared" si="3"/>
-        <v>2702.7757506959647</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="7"/>
-        <v>22.009999999999991</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2702.7434431880019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="1" t="s">
         <v>71</v>
@@ -6966,26 +5040,19 @@
         <v>67</v>
       </c>
       <c r="D69" s="9">
+        <f t="shared" si="5"/>
+        <v>5.5833333333333304</v>
+      </c>
+      <c r="E69" s="9">
         <f t="shared" si="6"/>
-        <v>5.5833333333333304</v>
-      </c>
-      <c r="E69" s="1">
-        <v>392</v>
+        <v>391.99543598174927</v>
       </c>
       <c r="F69" s="4">
         <f t="shared" si="3"/>
-        <v>2551.0204081632651</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="7"/>
-        <v>23.300000000000011</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2551.0501097940296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="1" t="s">
         <v>72</v>
@@ -6994,26 +5061,19 @@
         <v>68</v>
       </c>
       <c r="D70" s="9">
+        <f t="shared" si="5"/>
+        <v>5.6666666666666634</v>
+      </c>
+      <c r="E70" s="9">
         <f t="shared" si="6"/>
-        <v>5.6666666666666634</v>
-      </c>
-      <c r="E70" s="1">
-        <v>415.3</v>
+        <v>415.30469757994513</v>
       </c>
       <c r="F70" s="4">
         <f t="shared" si="3"/>
-        <v>2407.8979051288225</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="7"/>
-        <v>24.699999999999989</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2407.8706689983983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="1" t="s">
         <v>73</v>
@@ -7022,26 +5082,19 @@
         <v>69</v>
       </c>
       <c r="D71" s="9">
+        <f t="shared" si="5"/>
+        <v>5.7499999999999964</v>
+      </c>
+      <c r="E71" s="9">
         <f t="shared" si="6"/>
-        <v>5.7499999999999964</v>
-      </c>
-      <c r="E71" s="1">
         <v>440</v>
       </c>
       <c r="F71" s="4">
         <f t="shared" si="3"/>
         <v>2272.7272727272725</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="7"/>
-        <v>26.160000000000025</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="1" t="s">
         <v>74</v>
@@ -7050,26 +5103,19 @@
         <v>70</v>
       </c>
       <c r="D72" s="9">
+        <f t="shared" si="5"/>
+        <v>5.8333333333333295</v>
+      </c>
+      <c r="E72" s="9">
         <f t="shared" si="6"/>
-        <v>5.8333333333333295</v>
-      </c>
-      <c r="E72" s="1">
-        <v>466.16</v>
+        <v>466.16376151808993</v>
       </c>
       <c r="F72" s="4">
         <f t="shared" si="3"/>
-        <v>2145.1862021623474</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="7"/>
-        <v>27.71999999999997</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2145.1688924583941</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="10" t="s">
         <v>75</v>
@@ -7078,26 +5124,19 @@
         <v>71</v>
       </c>
       <c r="D73" s="11">
+        <f t="shared" si="5"/>
+        <v>5.9166666666666625</v>
+      </c>
+      <c r="E73" s="11">
         <f t="shared" si="6"/>
-        <v>5.9166666666666625</v>
-      </c>
-      <c r="E73" s="10">
-        <v>493.88</v>
+        <v>493.88330125612413</v>
       </c>
       <c r="F73" s="12">
         <f t="shared" si="3"/>
-        <v>2024.7833481817447</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="7"/>
-        <v>29.370000000000005</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2024.7698139553163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>5</v>
       </c>
@@ -7108,26 +5147,19 @@
         <v>72</v>
       </c>
       <c r="D74" s="9">
+        <f t="shared" si="5"/>
+        <v>5.9999999999999956</v>
+      </c>
+      <c r="E74" s="9">
         <f t="shared" si="6"/>
-        <v>5.9999999999999956</v>
-      </c>
-      <c r="E74" s="1">
-        <v>523.25</v>
+        <v>523.25113060119725</v>
       </c>
       <c r="F74" s="4">
         <f t="shared" si="3"/>
-        <v>1911.1323459149546</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="7"/>
-        <v>31.120000000000005</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1911.128216485715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="1" t="s">
         <v>77</v>
@@ -7136,26 +5168,19 @@
         <v>73</v>
       </c>
       <c r="D75" s="9">
+        <f t="shared" si="5"/>
+        <v>6.0833333333333286</v>
+      </c>
+      <c r="E75" s="9">
         <f t="shared" si="6"/>
-        <v>6.0833333333333286</v>
-      </c>
-      <c r="E75" s="1">
-        <v>554.37</v>
+        <v>554.36526195374415</v>
       </c>
       <c r="F75" s="4">
         <f t="shared" si="3"/>
-        <v>1803.8494146508651</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="7"/>
-        <v>32.960000000000036</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1803.864831782045</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="1" t="s">
         <v>78</v>
@@ -7164,26 +5189,19 @@
         <v>74</v>
       </c>
       <c r="D76" s="9">
+        <f t="shared" si="5"/>
+        <v>6.1666666666666616</v>
+      </c>
+      <c r="E76" s="9">
         <f t="shared" si="6"/>
-        <v>6.1666666666666616</v>
-      </c>
-      <c r="E76" s="1">
-        <v>587.33000000000004</v>
+        <v>587.32953583481515</v>
       </c>
       <c r="F76" s="4">
         <f t="shared" si="3"/>
-        <v>1702.6203326920129</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="7"/>
-        <v>34.919999999999959</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1702.6216782689562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="1" t="s">
         <v>79</v>
@@ -7192,26 +5210,19 @@
         <v>75</v>
       </c>
       <c r="D77" s="9">
+        <f t="shared" si="5"/>
+        <v>6.2499999999999947</v>
+      </c>
+      <c r="E77" s="9">
         <f t="shared" si="6"/>
-        <v>6.2499999999999947</v>
-      </c>
-      <c r="E77" s="1">
-        <v>622.25</v>
+        <v>622.25396744416184</v>
       </c>
       <c r="F77" s="4">
         <f t="shared" si="3"/>
-        <v>1607.0711128967457</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1607.0608663330627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="5" t="s">
         <v>80</v>
@@ -7220,26 +5231,19 @@
         <v>76</v>
       </c>
       <c r="D78" s="9">
+        <f t="shared" si="5"/>
+        <v>6.3333333333333277</v>
+      </c>
+      <c r="E78" s="9">
         <f t="shared" si="6"/>
-        <v>6.3333333333333277</v>
-      </c>
-      <c r="E78" s="5">
-        <v>659.25</v>
+        <v>659.25511382573984</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" si="3"/>
-        <v>1516.8752370117556</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="7"/>
-        <v>39.210000000000036</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1516.8634706477665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="1" t="s">
         <v>81</v>
@@ -7248,26 +5252,19 @@
         <v>77</v>
       </c>
       <c r="D79" s="9">
+        <f t="shared" si="5"/>
+        <v>6.4166666666666607</v>
+      </c>
+      <c r="E79" s="9">
         <f t="shared" si="6"/>
-        <v>6.4166666666666607</v>
-      </c>
-      <c r="E79" s="1">
-        <v>698.46</v>
+        <v>698.45646286600777</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" ref="F79:F129" si="8">1/E79*1000000</f>
-        <v>1431.7212152449674</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="7"/>
-        <v>41.529999999999973</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F79:F129" si="7">1/E79*1000000</f>
+        <v>1431.7284657896287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="1" t="s">
         <v>82</v>
@@ -7276,26 +5273,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="9">
+        <f t="shared" si="5"/>
+        <v>6.4999999999999938</v>
+      </c>
+      <c r="E80" s="9">
         <f t="shared" si="6"/>
-        <v>6.4999999999999938</v>
-      </c>
-      <c r="E80" s="1">
-        <v>739.99</v>
+        <v>739.9888454232688</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="8"/>
-        <v>1351.3696131028796</v>
-      </c>
-      <c r="G80">
         <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1351.3717215940012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="1" t="s">
         <v>83</v>
@@ -7304,26 +5294,19 @@
         <v>79</v>
       </c>
       <c r="D81" s="9">
+        <f t="shared" si="5"/>
+        <v>6.5833333333333268</v>
+      </c>
+      <c r="E81" s="9">
         <f t="shared" si="6"/>
-        <v>6.5833333333333268</v>
-      </c>
-      <c r="E81" s="1">
-        <v>783.99</v>
+        <v>783.99087196349853</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="8"/>
-        <v>1275.5264735519586</v>
-      </c>
-      <c r="G81">
         <f t="shared" si="7"/>
-        <v>46.620000000000005</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1275.5250548970148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="1" t="s">
         <v>84</v>
@@ -7332,26 +5315,19 @@
         <v>80</v>
       </c>
       <c r="D82" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="E82" s="9">
         <f t="shared" si="6"/>
-        <v>6.6666666666666599</v>
-      </c>
-      <c r="E82" s="1">
-        <v>830.61</v>
+        <v>830.60939515989025</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="8"/>
-        <v>1203.934457808117</v>
-      </c>
-      <c r="G82">
         <f t="shared" si="7"/>
-        <v>49.389999999999986</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1203.9353344991991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="1" t="s">
         <v>85</v>
@@ -7360,26 +5336,19 @@
         <v>81</v>
       </c>
       <c r="D83" s="9">
+        <f t="shared" si="5"/>
+        <v>6.7499999999999929</v>
+      </c>
+      <c r="E83" s="9">
         <f t="shared" si="6"/>
-        <v>6.7499999999999929</v>
-      </c>
-      <c r="E83" s="1">
         <v>880</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1136.3636363636363</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="7"/>
-        <v>52.330000000000041</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="1" t="s">
         <v>86</v>
@@ -7388,26 +5357,19 @@
         <v>82</v>
       </c>
       <c r="D84" s="9">
+        <f t="shared" si="5"/>
+        <v>6.8333333333333259</v>
+      </c>
+      <c r="E84" s="9">
         <f t="shared" si="6"/>
-        <v>6.8333333333333259</v>
-      </c>
-      <c r="E84" s="1">
-        <v>932.33</v>
+        <v>932.32752303617963</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="8"/>
-        <v>1072.5815966449647</v>
-      </c>
-      <c r="G84">
         <f t="shared" si="7"/>
-        <v>55.439999999999941</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1072.5844462291973</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="10" t="s">
         <v>87</v>
@@ -7416,26 +5378,19 @@
         <v>83</v>
       </c>
       <c r="D85" s="11">
+        <f t="shared" si="5"/>
+        <v>6.916666666666659</v>
+      </c>
+      <c r="E85" s="11">
         <f t="shared" si="6"/>
-        <v>6.916666666666659</v>
-      </c>
-      <c r="E85" s="10">
-        <v>987.77</v>
+        <v>987.76660251224826</v>
       </c>
       <c r="F85" s="12">
-        <f t="shared" si="8"/>
-        <v>1012.3814248256173</v>
-      </c>
-      <c r="G85">
         <f t="shared" si="7"/>
-        <v>58.730000000000018</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1012.3849069776581</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>6</v>
       </c>
@@ -7446,26 +5401,19 @@
         <v>84</v>
       </c>
       <c r="D86" s="9">
+        <f t="shared" si="5"/>
+        <v>6.999999999999992</v>
+      </c>
+      <c r="E86" s="9">
         <f t="shared" si="6"/>
-        <v>6.999999999999992</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1046.5</v>
+        <v>1046.5022612023945</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="8"/>
-        <v>955.56617295747731</v>
-      </c>
-      <c r="G86">
         <f t="shared" si="7"/>
-        <v>62.230000000000018</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>955.56410824285751</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="1" t="s">
         <v>89</v>
@@ -7474,26 +5422,19 @@
         <v>85</v>
       </c>
       <c r="D87" s="9">
+        <f t="shared" si="5"/>
+        <v>7.083333333333325</v>
+      </c>
+      <c r="E87" s="9">
         <f t="shared" si="6"/>
-        <v>7.083333333333325</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1108.73</v>
+        <v>1108.7305239074883</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="8"/>
-        <v>901.93284208057867</v>
-      </c>
-      <c r="G87">
         <f t="shared" si="7"/>
-        <v>65.930000000000064</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>901.93241589102252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="1" t="s">
         <v>90</v>
@@ -7502,26 +5443,19 @@
         <v>86</v>
       </c>
       <c r="D88" s="9">
+        <f t="shared" si="5"/>
+        <v>7.1666666666666581</v>
+      </c>
+      <c r="E88" s="9">
         <f t="shared" si="6"/>
-        <v>7.1666666666666581</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1174.6600000000001</v>
+        <v>1174.6590716696303</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="8"/>
-        <v>851.31016634600644</v>
-      </c>
-      <c r="G88">
         <f t="shared" si="7"/>
-        <v>69.849999999999909</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>851.3108391344781</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="1" t="s">
         <v>91</v>
@@ -7530,26 +5464,19 @@
         <v>87</v>
       </c>
       <c r="D89" s="9">
+        <f t="shared" si="5"/>
+        <v>7.2499999999999911</v>
+      </c>
+      <c r="E89" s="9">
         <f t="shared" si="6"/>
-        <v>7.2499999999999911</v>
-      </c>
-      <c r="E89" s="1">
-        <v>1244.51</v>
+        <v>1244.5079348883235</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="8"/>
-        <v>803.52909980634945</v>
-      </c>
-      <c r="G89">
         <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>803.53043316653145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="1" t="s">
         <v>92</v>
@@ -7558,26 +5485,19 @@
         <v>88</v>
       </c>
       <c r="D90" s="9">
+        <f t="shared" si="5"/>
+        <v>7.3333333333333242</v>
+      </c>
+      <c r="E90" s="9">
         <f t="shared" si="6"/>
-        <v>7.3333333333333242</v>
-      </c>
-      <c r="E90" s="1">
-        <v>1318.51</v>
+        <v>1318.5102276514795</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="8"/>
-        <v>758.43186627329339</v>
-      </c>
-      <c r="G90">
         <f t="shared" si="7"/>
-        <v>78.400000000000091</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758.43173532388334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="1" t="s">
         <v>93</v>
@@ -7586,26 +5506,19 @@
         <v>89</v>
       </c>
       <c r="D91" s="9">
+        <f t="shared" si="5"/>
+        <v>7.4166666666666572</v>
+      </c>
+      <c r="E91" s="9">
         <f t="shared" si="6"/>
-        <v>7.4166666666666572</v>
-      </c>
-      <c r="E91" s="1">
-        <v>1396.91</v>
+        <v>1396.9129257320155</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="8"/>
-        <v>715.8657322232641</v>
-      </c>
-      <c r="G91">
         <f t="shared" si="7"/>
-        <v>83.069999999999936</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>715.86423289481434</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="1" t="s">
         <v>94</v>
@@ -7614,26 +5527,19 @@
         <v>90</v>
       </c>
       <c r="D92" s="9">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999902</v>
+      </c>
+      <c r="E92" s="9">
         <f t="shared" si="6"/>
-        <v>7.4999999999999902</v>
-      </c>
-      <c r="E92" s="1">
-        <v>1479.98</v>
+        <v>1479.9776908465376</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="8"/>
-        <v>675.68480655143981</v>
-      </c>
-      <c r="G92">
         <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>675.6858607970006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="1" t="s">
         <v>95</v>
@@ -7642,26 +5548,19 @@
         <v>91</v>
       </c>
       <c r="D93" s="9">
+        <f t="shared" si="5"/>
+        <v>7.5833333333333233</v>
+      </c>
+      <c r="E93" s="9">
         <f t="shared" si="6"/>
-        <v>7.5833333333333233</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1567.98</v>
+        <v>1567.9817439269968</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="8"/>
-        <v>637.76323677597929</v>
-      </c>
-      <c r="G93">
         <f t="shared" si="7"/>
-        <v>93.240000000000009</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>637.76252744850751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="1" t="s">
         <v>96</v>
@@ -7670,26 +5569,19 @@
         <v>92</v>
       </c>
       <c r="D94" s="9">
+        <f t="shared" si="5"/>
+        <v>7.6666666666666563</v>
+      </c>
+      <c r="E94" s="9">
         <f t="shared" si="6"/>
-        <v>7.6666666666666563</v>
-      </c>
-      <c r="E94" s="1">
-        <v>1661.22</v>
+        <v>1661.2187903197805</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="8"/>
-        <v>601.96722890405852</v>
-      </c>
-      <c r="G94">
         <f t="shared" si="7"/>
-        <v>98.779999999999973</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>601.96766724959957</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="1" t="s">
         <v>97</v>
@@ -7698,26 +5590,19 @@
         <v>93</v>
       </c>
       <c r="D95" s="9">
+        <f t="shared" si="5"/>
+        <v>7.7499999999999893</v>
+      </c>
+      <c r="E95" s="9">
         <f t="shared" si="6"/>
-        <v>7.7499999999999893</v>
-      </c>
-      <c r="E95" s="1">
         <v>1760</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>568.18181818181813</v>
       </c>
-      <c r="G95">
-        <f t="shared" si="7"/>
-        <v>104.66000000000008</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="1" t="s">
         <v>98</v>
@@ -7726,26 +5611,19 @@
         <v>94</v>
       </c>
       <c r="D96" s="9">
+        <f t="shared" si="5"/>
+        <v>7.8333333333333224</v>
+      </c>
+      <c r="E96" s="9">
         <f t="shared" si="6"/>
-        <v>7.8333333333333224</v>
-      </c>
-      <c r="E96" s="1">
-        <v>1864.66</v>
+        <v>1864.6550460723597</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="8"/>
-        <v>536.29079832248237</v>
-      </c>
-      <c r="G96">
         <f t="shared" si="7"/>
-        <v>110.86999999999989</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>536.29222311459853</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="10" t="s">
         <v>99</v>
@@ -7754,26 +5632,19 @@
         <v>95</v>
       </c>
       <c r="D97" s="11">
+        <f t="shared" si="5"/>
+        <v>7.9166666666666554</v>
+      </c>
+      <c r="E97" s="11">
         <f t="shared" si="6"/>
-        <v>7.9166666666666554</v>
-      </c>
-      <c r="E97" s="10">
-        <v>1975.53</v>
+        <v>1975.5332050244961</v>
       </c>
       <c r="F97" s="12">
-        <f t="shared" si="8"/>
-        <v>506.19327471615213</v>
-      </c>
-      <c r="G97">
         <f t="shared" si="7"/>
-        <v>117.47000000000003</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506.19245348882919</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>7</v>
       </c>
@@ -7784,26 +5655,19 @@
         <v>96</v>
       </c>
       <c r="D98" s="9">
+        <f t="shared" si="5"/>
+        <v>7.9999999999999885</v>
+      </c>
+      <c r="E98" s="9">
         <f t="shared" si="6"/>
-        <v>7.9999999999999885</v>
-      </c>
-      <c r="E98" s="1">
-        <v>2093</v>
+        <v>2093.004522404789</v>
       </c>
       <c r="F98" s="4">
-        <f t="shared" si="8"/>
-        <v>477.78308647873865</v>
-      </c>
-      <c r="G98">
         <f t="shared" si="7"/>
-        <v>124.46000000000004</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>477.78205412142876</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="1" t="s">
         <v>101</v>
@@ -7812,26 +5676,19 @@
         <v>97</v>
       </c>
       <c r="D99" s="9">
-        <f t="shared" ref="D99:D131" si="9">D98+(1/12)</f>
+        <f t="shared" ref="D99:D131" si="8">D98+(1/12)</f>
         <v>8.0833333333333215</v>
       </c>
-      <c r="E99" s="1">
-        <v>2217.46</v>
+      <c r="E99" s="9">
+        <f t="shared" si="6"/>
+        <v>2217.4610478149771</v>
       </c>
       <c r="F99" s="4">
-        <f t="shared" si="8"/>
-        <v>450.96642104028933</v>
-      </c>
-      <c r="G99">
         <f t="shared" si="7"/>
-        <v>131.86000000000013</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>450.96620794551114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="1" t="s">
         <v>102</v>
@@ -7840,26 +5697,19 @@
         <v>98</v>
       </c>
       <c r="D100" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.1666666666666554</v>
       </c>
-      <c r="E100" s="1">
-        <v>2349.3200000000002</v>
+      <c r="E100" s="9">
+        <f t="shared" si="6"/>
+        <v>2349.3181433392601</v>
       </c>
       <c r="F100" s="4">
-        <f t="shared" si="8"/>
-        <v>425.65508317300322</v>
-      </c>
-      <c r="G100">
         <f t="shared" si="7"/>
-        <v>139.69999999999982</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>425.65541956723911</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="1" t="s">
         <v>103</v>
@@ -7868,26 +5718,19 @@
         <v>99</v>
       </c>
       <c r="D101" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.2499999999999893</v>
       </c>
-      <c r="E101" s="1">
-        <v>2489.02</v>
+      <c r="E101" s="9">
+        <f t="shared" si="6"/>
+        <v>2489.0158697766474</v>
       </c>
       <c r="F101" s="4">
-        <f t="shared" si="8"/>
-        <v>401.76454990317472</v>
-      </c>
-      <c r="G101">
         <f t="shared" si="7"/>
-        <v>148</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401.76521658326567</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="1" t="s">
         <v>104</v>
@@ -7896,26 +5739,19 @@
         <v>100</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333233</v>
       </c>
-      <c r="E102" s="1">
-        <v>2637.02</v>
+      <c r="E102" s="9">
+        <f t="shared" si="6"/>
+        <v>2637.0204553029598</v>
       </c>
       <c r="F102" s="4">
-        <f t="shared" si="8"/>
-        <v>379.2159331366467</v>
-      </c>
-      <c r="G102">
         <f t="shared" si="7"/>
-        <v>156.80999999999995</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>379.2158676619415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="1" t="s">
         <v>105</v>
@@ -7924,26 +5760,19 @@
         <v>101</v>
       </c>
       <c r="D103" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.4166666666666572</v>
       </c>
-      <c r="E103" s="1">
-        <v>2793.83</v>
+      <c r="E103" s="9">
+        <f t="shared" si="6"/>
+        <v>2793.8258514640311</v>
       </c>
       <c r="F103" s="4">
-        <f t="shared" si="8"/>
-        <v>357.9315849568514</v>
-      </c>
-      <c r="G103">
         <f t="shared" si="7"/>
-        <v>166.13000000000011</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>357.93211644740717</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="1" t="s">
         <v>106</v>
@@ -7952,26 +5781,19 @@
         <v>102</v>
       </c>
       <c r="D104" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.4999999999999911</v>
       </c>
-      <c r="E104" s="1">
-        <v>2959.96</v>
+      <c r="E104" s="9">
+        <f t="shared" si="6"/>
+        <v>2959.9553816930757</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" si="8"/>
-        <v>337.8424032757199</v>
-      </c>
-      <c r="G104">
         <f t="shared" si="7"/>
-        <v>176</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337.84293039850024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="1" t="s">
         <v>107</v>
@@ -7980,26 +5802,19 @@
         <v>103</v>
       </c>
       <c r="D105" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.583333333333325</v>
       </c>
-      <c r="E105" s="1">
-        <v>3135.96</v>
+      <c r="E105" s="9">
+        <f t="shared" si="6"/>
+        <v>3135.9634878539941</v>
       </c>
       <c r="F105" s="4">
-        <f t="shared" si="8"/>
-        <v>318.88161838798965</v>
-      </c>
-      <c r="G105">
         <f t="shared" si="7"/>
-        <v>186.48000000000002</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>318.8812637242537</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="1" t="s">
         <v>108</v>
@@ -8008,26 +5823,19 @@
         <v>104</v>
       </c>
       <c r="D106" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.666666666666659</v>
       </c>
-      <c r="E106" s="1">
-        <v>3322.44</v>
+      <c r="E106" s="9">
+        <f t="shared" si="6"/>
+        <v>3322.4375806395601</v>
       </c>
       <c r="F106" s="4">
-        <f t="shared" si="8"/>
-        <v>300.98361445202926</v>
-      </c>
-      <c r="G106">
         <f t="shared" si="7"/>
-        <v>197.55999999999995</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300.9838336247999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="1" t="s">
         <v>109</v>
@@ -8036,26 +5844,19 @@
         <v>105</v>
       </c>
       <c r="D107" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.7499999999999929</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="9">
+        <f t="shared" si="6"/>
         <v>3520</v>
       </c>
       <c r="F107" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>284.09090909090907</v>
       </c>
-      <c r="G107">
-        <f t="shared" si="7"/>
-        <v>209.30999999999995</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="1" t="s">
         <v>110</v>
@@ -8064,26 +5865,19 @@
         <v>106</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.8333333333333268</v>
       </c>
-      <c r="E108" s="1">
-        <v>3729.31</v>
+      <c r="E108" s="9">
+        <f t="shared" si="6"/>
+        <v>3729.3100921447194</v>
       </c>
       <c r="F108" s="4">
-        <f t="shared" si="8"/>
-        <v>268.14611818272016</v>
-      </c>
-      <c r="G108">
         <f t="shared" si="7"/>
-        <v>221.76000000000022</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>268.14611155729926</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="10" t="s">
         <v>111</v>
@@ -8092,26 +5886,19 @@
         <v>107</v>
       </c>
       <c r="D109" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.9166666666666607</v>
       </c>
-      <c r="E109" s="10">
-        <v>3951.07</v>
+      <c r="E109" s="11">
+        <f t="shared" si="6"/>
+        <v>3951.0664100489917</v>
       </c>
       <c r="F109" s="12">
-        <f t="shared" si="8"/>
-        <v>253.09599678061892</v>
-      </c>
-      <c r="G109">
         <f t="shared" si="7"/>
-        <v>234.94000000000005</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253.09622674441465</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>8</v>
       </c>
@@ -8122,26 +5909,19 @@
         <v>108</v>
       </c>
       <c r="D110" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.9999999999999947</v>
       </c>
-      <c r="E110" s="1">
-        <v>4186.01</v>
+      <c r="E110" s="9">
+        <f t="shared" si="6"/>
+        <v>4186.0090448095771</v>
       </c>
       <c r="F110" s="4">
-        <f t="shared" si="8"/>
-        <v>238.89097254903834</v>
-      </c>
-      <c r="G110">
         <f t="shared" si="7"/>
-        <v>248.90999999999985</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>238.89102706071444</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="1" t="s">
         <v>113</v>
@@ -8150,26 +5930,19 @@
         <v>109</v>
       </c>
       <c r="D111" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.0833333333333286</v>
       </c>
-      <c r="E111" s="1">
-        <v>4434.92</v>
+      <c r="E111" s="9">
+        <f t="shared" si="6"/>
+        <v>4434.9220956299532</v>
       </c>
       <c r="F111" s="4">
-        <f t="shared" si="8"/>
-        <v>225.48321052014467</v>
-      </c>
-      <c r="G111">
         <f t="shared" si="7"/>
-        <v>263.71000000000004</v>
-      </c>
-      <c r="H111">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225.48310397275563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="1" t="s">
         <v>114</v>
@@ -8178,26 +5951,19 @@
         <v>110</v>
       </c>
       <c r="D112" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.1666666666666625</v>
       </c>
-      <c r="E112" s="1">
-        <v>4698.63</v>
+      <c r="E112" s="9">
+        <f t="shared" si="6"/>
+        <v>4698.6362866785194</v>
       </c>
       <c r="F112" s="4">
-        <f t="shared" si="8"/>
-        <v>212.8279945430902</v>
-      </c>
-      <c r="G112">
         <f t="shared" si="7"/>
-        <v>279.39999999999964</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>212.82770978361961</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="1" t="s">
         <v>115</v>
@@ -8206,26 +5972,19 @@
         <v>111</v>
       </c>
       <c r="D113" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.2499999999999964</v>
       </c>
-      <c r="E113" s="1">
-        <v>4978.03</v>
+      <c r="E113" s="9">
+        <f t="shared" si="6"/>
+        <v>4978.0317395532938</v>
       </c>
       <c r="F113" s="4">
-        <f t="shared" si="8"/>
-        <v>200.88267848928191</v>
-      </c>
-      <c r="G113">
         <f t="shared" si="7"/>
-        <v>296.01000000000022</v>
-      </c>
-      <c r="H113">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200.88260829163286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="1" t="s">
         <v>116</v>
@@ -8234,26 +5993,19 @@
         <v>112</v>
       </c>
       <c r="D114" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.3333333333333304</v>
       </c>
-      <c r="E114" s="1">
-        <v>5274.04</v>
+      <c r="E114" s="9">
+        <f t="shared" si="6"/>
+        <v>5274.0409106059187</v>
       </c>
       <c r="F114" s="4">
-        <f t="shared" si="8"/>
-        <v>189.60796656832335</v>
-      </c>
-      <c r="G114">
         <f t="shared" si="7"/>
-        <v>313.60999999999967</v>
-      </c>
-      <c r="H114">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189.60793383097081</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="1" t="s">
         <v>117</v>
@@ -8262,26 +6014,19 @@
         <v>113</v>
       </c>
       <c r="D115" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.4166666666666643</v>
       </c>
-      <c r="E115" s="1">
-        <v>5587.65</v>
+      <c r="E115" s="9">
+        <f t="shared" si="6"/>
+        <v>5587.6517029280612</v>
       </c>
       <c r="F115" s="4">
-        <f t="shared" si="8"/>
-        <v>178.96611276654767</v>
-      </c>
-      <c r="G115">
         <f t="shared" si="7"/>
-        <v>332.26000000000022</v>
-      </c>
-      <c r="H115">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178.96605822370361</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="1" t="s">
         <v>118</v>
@@ -8290,26 +6035,19 @@
         <v>114</v>
       </c>
       <c r="D116" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.4999999999999982</v>
       </c>
-      <c r="E116" s="1">
-        <v>5919.91</v>
+      <c r="E116" s="9">
+        <f t="shared" si="6"/>
+        <v>5919.9107633861504</v>
       </c>
       <c r="F116" s="4">
-        <f t="shared" si="8"/>
-        <v>168.9214869820656</v>
-      </c>
-      <c r="G116">
         <f t="shared" si="7"/>
-        <v>352.02000000000044</v>
-      </c>
-      <c r="H116">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168.92146519925015</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="1" t="s">
         <v>119</v>
@@ -8318,26 +6056,19 @@
         <v>115</v>
       </c>
       <c r="D117" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.5833333333333321</v>
       </c>
-      <c r="E117" s="1">
-        <v>6271.93</v>
+      <c r="E117" s="9">
+        <f t="shared" si="6"/>
+        <v>6271.9269757079892</v>
       </c>
       <c r="F117" s="4">
-        <f t="shared" si="8"/>
-        <v>159.44055498068377</v>
-      </c>
-      <c r="G117">
         <f t="shared" si="7"/>
-        <v>372.94999999999982</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159.44063186212682</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="1" t="s">
         <v>120</v>
@@ -8346,26 +6077,19 @@
         <v>116</v>
       </c>
       <c r="D118" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="E118" s="1">
-        <v>6644.88</v>
+      <c r="E118" s="9">
+        <f t="shared" si="6"/>
+        <v>6644.8751612791211</v>
       </c>
       <c r="F118" s="4">
-        <f t="shared" si="8"/>
-        <v>150.49180722601463</v>
-      </c>
-      <c r="G118">
         <f t="shared" si="7"/>
-        <v>395.11999999999989</v>
-      </c>
-      <c r="H118">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150.49191681239992</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="1" t="s">
         <v>121</v>
@@ -8374,26 +6098,19 @@
         <v>117</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.75</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="9">
+        <f t="shared" si="6"/>
         <v>7040</v>
       </c>
       <c r="F119" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>142.04545454545453</v>
       </c>
-      <c r="G119">
-        <f t="shared" si="7"/>
-        <v>418.61999999999989</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="1" t="s">
         <v>122</v>
@@ -8402,26 +6119,19 @@
         <v>118</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.8333333333333339</v>
       </c>
-      <c r="E120" s="1">
-        <v>7458.62</v>
+      <c r="E120" s="9">
+        <f t="shared" si="6"/>
+        <v>7458.6201842894361</v>
       </c>
       <c r="F120" s="4">
-        <f t="shared" si="8"/>
-        <v>134.07305909136008</v>
-      </c>
-      <c r="G120">
         <f t="shared" si="7"/>
-        <v>443.51000000000022</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>134.07305577864969</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14"/>
       <c r="B121" s="10" t="s">
         <v>123</v>
@@ -8430,26 +6140,19 @@
         <v>119</v>
       </c>
       <c r="D121" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.9166666666666679</v>
       </c>
-      <c r="E121" s="10">
-        <v>7902.13</v>
+      <c r="E121" s="11">
+        <f t="shared" si="6"/>
+        <v>7902.1328200979879</v>
       </c>
       <c r="F121" s="12">
-        <f t="shared" si="8"/>
-        <v>126.5481585344711</v>
-      </c>
-      <c r="G121">
         <f t="shared" si="7"/>
-        <v>469.89000000000033</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>126.54811337220725</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
         <v>9</v>
       </c>
@@ -8460,26 +6163,19 @@
         <v>120</v>
       </c>
       <c r="D122" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.000000000000002</v>
       </c>
-      <c r="E122" s="1">
-        <v>8372.02</v>
+      <c r="E122" s="9">
+        <f t="shared" si="6"/>
+        <v>8372.0180896191559</v>
       </c>
       <c r="F122" s="4">
-        <f t="shared" si="8"/>
-        <v>119.44548627451917</v>
-      </c>
-      <c r="G122">
         <f t="shared" si="7"/>
-        <v>497.81999999999971</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119.44551353035719</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="1" t="s">
         <v>125</v>
@@ -8488,26 +6184,19 @@
         <v>121</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.083333333333336</v>
       </c>
-      <c r="E123" s="1">
-        <v>8869.84</v>
+      <c r="E123" s="9">
+        <f t="shared" si="6"/>
+        <v>8869.8441912599046</v>
       </c>
       <c r="F123" s="4">
-        <f t="shared" si="8"/>
-        <v>112.74160526007233</v>
-      </c>
-      <c r="G123">
         <f t="shared" si="7"/>
-        <v>527.43000000000029</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112.74155198637784</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="1" t="s">
         <v>126</v>
@@ -8516,26 +6205,19 @@
         <v>122</v>
       </c>
       <c r="D124" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.16666666666667</v>
       </c>
-      <c r="E124" s="1">
-        <v>9397.27</v>
+      <c r="E124" s="9">
+        <f t="shared" si="6"/>
+        <v>9397.2725733570442</v>
       </c>
       <c r="F124" s="4">
-        <f t="shared" si="8"/>
-        <v>106.41388403227745</v>
-      </c>
-      <c r="G124">
         <f t="shared" si="7"/>
-        <v>558.78999999999905</v>
-      </c>
-      <c r="H124">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106.41385489180973</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="1" t="s">
         <v>127</v>
@@ -8544,26 +6226,19 @@
         <v>123</v>
       </c>
       <c r="D125" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.250000000000004</v>
       </c>
-      <c r="E125" s="1">
-        <v>9956.06</v>
+      <c r="E125" s="9">
+        <f t="shared" si="6"/>
+        <v>9956.0634791065877</v>
       </c>
       <c r="F125" s="4">
-        <f t="shared" si="8"/>
-        <v>100.44133924464096</v>
-      </c>
-      <c r="G125">
         <f t="shared" si="7"/>
-        <v>592.02000000000044</v>
-      </c>
-      <c r="H125">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100.44130414581643</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="1" t="s">
         <v>128</v>
@@ -8572,26 +6247,19 @@
         <v>124</v>
       </c>
       <c r="D126" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.333333333333337</v>
       </c>
-      <c r="E126" s="1">
-        <v>10548.08</v>
+      <c r="E126" s="9">
+        <f t="shared" si="6"/>
+        <v>10548.081821211836</v>
       </c>
       <c r="F126" s="4">
-        <f t="shared" si="8"/>
-        <v>94.803983284161674</v>
-      </c>
-      <c r="G126">
         <f t="shared" si="7"/>
-        <v>627.21999999999935</v>
-      </c>
-      <c r="H126">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94.803966915485418</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="1" t="s">
         <v>129</v>
@@ -8600,26 +6268,19 @@
         <v>125</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.416666666666671</v>
       </c>
-      <c r="E127" s="1">
-        <v>11175.3</v>
+      <c r="E127" s="9">
+        <f t="shared" si="6"/>
+        <v>11175.303405856126</v>
       </c>
       <c r="F127" s="4">
-        <f t="shared" si="8"/>
-        <v>89.483056383273833</v>
-      </c>
-      <c r="G127">
         <f t="shared" si="7"/>
-        <v>664.52000000000044</v>
-      </c>
-      <c r="H127">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89.483029111851778</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="1" t="s">
         <v>130</v>
@@ -8628,26 +6289,19 @@
         <v>126</v>
       </c>
       <c r="D128" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.500000000000005</v>
       </c>
-      <c r="E128" s="1">
-        <v>11839.82</v>
+      <c r="E128" s="9">
+        <f t="shared" si="6"/>
+        <v>11839.821526772301</v>
       </c>
       <c r="F128" s="4">
-        <f t="shared" si="8"/>
-        <v>84.460743491032801</v>
-      </c>
-      <c r="G128">
         <f t="shared" si="7"/>
-        <v>704.03000000000065</v>
-      </c>
-      <c r="H128">
-        <f t="shared" ref="H128:H146" si="10">INT(G128/16)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84.460732599625075</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="1" t="s">
         <v>131</v>
@@ -8656,22 +6310,19 @@
         <v>127</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.583333333333339</v>
       </c>
-      <c r="E129" s="1">
-        <v>12543.85</v>
+      <c r="E129" s="9">
+        <f t="shared" si="6"/>
+        <v>12543.853951415975</v>
       </c>
       <c r="F129" s="4">
-        <f t="shared" si="8"/>
-        <v>79.720341043618987</v>
-      </c>
-      <c r="H129">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>79.720315931063439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="1" t="s">
         <v>132</v>
@@ -8680,15 +6331,11 @@
         <v>2</v>
       </c>
       <c r="D130" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.666666666666673</v>
       </c>
-      <c r="H130">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="1" t="s">
         <v>133</v>
@@ -8697,15 +6344,11 @@
         <v>2</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.750000000000007</v>
       </c>
-      <c r="H131">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="1" t="s">
         <v>134</v>
@@ -8714,15 +6357,11 @@
         <v>2</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" ref="D132:D146" si="11">D131+(1/12)</f>
+        <f t="shared" ref="D132:D146" si="9">D131+(1/12)</f>
         <v>10.833333333333341</v>
       </c>
-      <c r="H132">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14"/>
       <c r="B133" s="10" t="s">
         <v>135</v>
@@ -8731,17 +6370,13 @@
         <v>2</v>
       </c>
       <c r="D133" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10.916666666666675</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
-      <c r="H133">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
         <v>10</v>
       </c>
@@ -8752,15 +6387,11 @@
         <v>2</v>
       </c>
       <c r="D134" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.000000000000009</v>
       </c>
-      <c r="H134">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="1" t="s">
         <v>137</v>
@@ -8769,15 +6400,11 @@
         <v>2</v>
       </c>
       <c r="D135" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.083333333333343</v>
       </c>
-      <c r="H135">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="1" t="s">
         <v>138</v>
@@ -8786,15 +6413,11 @@
         <v>2</v>
       </c>
       <c r="D136" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.166666666666677</v>
       </c>
-      <c r="H136">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="1" t="s">
         <v>139</v>
@@ -8803,15 +6426,11 @@
         <v>2</v>
       </c>
       <c r="D137" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.250000000000011</v>
       </c>
-      <c r="H137">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="1" t="s">
         <v>140</v>
@@ -8820,15 +6439,11 @@
         <v>2</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.333333333333345</v>
       </c>
-      <c r="H138">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="1" t="s">
         <v>141</v>
@@ -8837,15 +6452,11 @@
         <v>2</v>
       </c>
       <c r="D139" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.416666666666679</v>
       </c>
-      <c r="H139">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="1" t="s">
         <v>142</v>
@@ -8854,15 +6465,11 @@
         <v>2</v>
       </c>
       <c r="D140" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.500000000000012</v>
       </c>
-      <c r="H140">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="1" t="s">
         <v>143</v>
@@ -8871,15 +6478,11 @@
         <v>2</v>
       </c>
       <c r="D141" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.583333333333346</v>
       </c>
-      <c r="H141">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="1" t="s">
         <v>144</v>
@@ -8888,15 +6491,11 @@
         <v>2</v>
       </c>
       <c r="D142" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.66666666666668</v>
       </c>
-      <c r="H142">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="1" t="s">
         <v>145</v>
@@ -8905,15 +6504,11 @@
         <v>2</v>
       </c>
       <c r="D143" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.750000000000014</v>
       </c>
-      <c r="H143">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="1" t="s">
         <v>146</v>
@@ -8922,15 +6517,11 @@
         <v>2</v>
       </c>
       <c r="D144" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.833333333333348</v>
       </c>
-      <c r="H144">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="14"/>
       <c r="B145" s="10" t="s">
         <v>147</v>
@@ -8939,17 +6530,13 @@
         <v>2</v>
       </c>
       <c r="D145" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.916666666666682</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
-      <c r="H145">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>11</v>
       </c>
@@ -8960,56 +6547,52 @@
         <v>2</v>
       </c>
       <c r="D146" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>12.000000000000016</v>
       </c>
-      <c r="H146">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
@@ -9065,12 +6648,6 @@
     <mergeCell ref="A122:A133"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G129">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>16</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>